--- a/data/trans_bre/P14_x_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P14_x_R-Habitat-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 19,29</t>
+          <t>3,07; 18,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 5,76</t>
+          <t>-7,31; 5,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,3; 1386,05</t>
+          <t>19,87; 1456,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,97; 123,91</t>
+          <t>-56,65; 143,4</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,51</t>
+          <t>5,69; 11,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 6,75</t>
+          <t>0,22; 6,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>144,86; 680,29</t>
+          <t>141,39; 699,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 111,73</t>
+          <t>1,08; 99,61</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,11</t>
+          <t>4,91; 9,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,98</t>
+          <t>4,7; 8,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>169,35; 563,69</t>
+          <t>161,03; 579,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,82; 249,75</t>
+          <t>85,16; 255,48</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,21</t>
+          <t>3,06; 8,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 10,05</t>
+          <t>1,99; 9,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,36; 303,19</t>
+          <t>60,16; 311,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,49; 208,68</t>
+          <t>29,78; 205,91</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,96</t>
+          <t>4,43; 9,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,25</t>
+          <t>3,44; 8,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,29; 272,21</t>
+          <t>75,98; 260,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>42,17; 146,08</t>
+          <t>41,03; 143,41</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,08</t>
+          <t>5,83; 8,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,13</t>
+          <t>4,36; 7,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>154,23; 286,66</t>
+          <t>156,63; 296,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>62,21; 129,29</t>
+          <t>60,28; 125,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_x_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P14_x_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 18,03</t>
+          <t>3,91; 18,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,87; 1456,64</t>
+          <t>37,29; 1662,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 11,68</t>
+          <t>5,8; 11,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>141,39; 699,61</t>
+          <t>174,72; 790,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,04</t>
+          <t>4,77; 9,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>161,03; 579,06</t>
+          <t>156,41; 572,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,43</t>
+          <t>3,21; 8,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,16; 311,97</t>
+          <t>65,49; 299,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 9,25</t>
+          <t>4,07; 8,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,98; 260,0</t>
+          <t>71,39; 247,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,83; 8,16</t>
+          <t>5,75; 8,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>156,63; 296,42</t>
+          <t>150,9; 286,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
